--- a/q3_results/3b.xlsx
+++ b/q3_results/3b.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>Time</t>
   </si>
@@ -29,6 +29,9 @@
     <t>wide</t>
   </si>
   <si>
+    <t>ubunt</t>
+  </si>
+  <si>
     <t>Energy</t>
   </si>
 </sst>
@@ -39,9 +42,10 @@
   <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -59,6 +63,21 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,7 +133,964 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00B3B3B3"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF420E"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00004586"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Execution time vs. number of cores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>narrow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6.48382352941177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.16017647058824</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.62052941176471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.29611764705882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.08011764705882</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.925823529411765</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.810058823529412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.719823529411765</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.648058823529412</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.589</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.540058823529412</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.498529411764706</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.462941176470588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.432176470588235</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.405176470588235</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01994117647059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.680058823529412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.510058823529412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.408058823529412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.340058823529412</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.291470588235294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.255058823529412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>NaN</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="1047895"/>
+        <c:axId val="62302280"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1047895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>number of cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62302280"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62302280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1047895"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1300"/>
+              <a:t>Energy consumption vs. number of cores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>narrow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>291.599279575449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>262.714254270867</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.721573869529</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133.940580410454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.5113344914694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.5875908896934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.2131510167898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.972458607165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42.1581883866925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.5294045948085</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.9078492489024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.4766351797953</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.1071544993381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.7909680228454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.1991642407365</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.9589695019381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>wide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$22:$A$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>104.859225541652</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.9685717205388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.4840669620025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.7782062721149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.8878865049888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.0713935786392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.9753853391252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.2376871206516</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>NaN</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="16883024"/>
+        <c:axId val="93659214"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="16883024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>number of cores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93659214"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="93659214"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>energy consumed (J)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="16883024"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>721440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>765000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>109800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4147200" y="97200"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>660960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704520</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>128520</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4086720" y="3875040"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -122,24 +1098,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="100">
+      <selection activeCell="C17" activeCellId="0" pane="topLeft" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.29803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.33333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.9137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
@@ -150,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
@@ -161,7 +1137,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="n">
         <v>2</v>
       </c>
@@ -172,7 +1148,7 @@
         <v>1.01994117647059</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
         <v>3</v>
       </c>
@@ -183,7 +1159,7 @@
         <v>0.680058823529412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
@@ -194,7 +1170,7 @@
         <v>0.510058823529412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="n">
         <v>5</v>
       </c>
@@ -205,7 +1181,7 @@
         <v>0.408058823529412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="n">
         <v>6</v>
       </c>
@@ -216,7 +1192,7 @@
         <v>0.340058823529412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="n">
         <v>7</v>
       </c>
@@ -227,7 +1203,7 @@
         <v>0.291470588235294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="n">
         <v>8</v>
       </c>
@@ -237,8 +1213,11 @@
       <c r="C10" s="0" t="n">
         <v>0.255058823529412</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="D10" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="n">
         <v>9</v>
       </c>
@@ -246,7 +1225,7 @@
         <v>0.719823529411765</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="n">
         <v>10</v>
       </c>
@@ -254,7 +1233,7 @@
         <v>0.648058823529412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="n">
         <v>11</v>
       </c>
@@ -262,7 +1241,7 @@
         <v>0.589</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="n">
         <v>12</v>
       </c>
@@ -270,7 +1249,7 @@
         <v>0.540058823529412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="n">
         <v>13</v>
       </c>
@@ -278,7 +1257,7 @@
         <v>0.498529411764706</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="n">
         <v>14</v>
       </c>
@@ -286,7 +1265,7 @@
         <v>0.462941176470588</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="n">
         <v>15</v>
       </c>
@@ -294,7 +1273,7 @@
         <v>0.432176470588235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="n">
         <v>16</v>
       </c>
@@ -302,13 +1281,13 @@
         <v>0.405176470588235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="19"/>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
         <v>1</v>
       </c>
@@ -319,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="n">
         <v>1</v>
       </c>
@@ -330,7 +1309,7 @@
         <v>104.859225541652</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="n">
         <v>2</v>
       </c>
@@ -341,7 +1320,7 @@
         <v>56.9685717205388</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="n">
         <v>3</v>
       </c>
@@ -352,7 +1331,7 @@
         <v>54.4840669620025</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="n">
         <v>4</v>
       </c>
@@ -363,7 +1342,7 @@
         <v>36.7782062721149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="n">
         <v>5</v>
       </c>
@@ -374,7 +1353,7 @@
         <v>24.8878865049888</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="n">
         <v>6</v>
       </c>
@@ -385,7 +1364,7 @@
         <v>19.0713935786392</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="n">
         <v>7</v>
       </c>
@@ -396,7 +1375,7 @@
         <v>15.9753853391252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="n">
         <v>8</v>
       </c>
@@ -407,7 +1386,7 @@
         <v>14.2376871206516</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="n">
         <v>9</v>
       </c>
@@ -415,7 +1394,7 @@
         <v>42.1581883866925</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="n">
         <v>10</v>
       </c>
@@ -423,7 +1402,7 @@
         <v>41.5294045948085</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="n">
         <v>11</v>
       </c>
@@ -431,7 +1410,7 @@
         <v>26.9078492489024</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="n">
         <v>12</v>
       </c>
@@ -439,7 +1418,7 @@
         <v>26.4766351797953</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="n">
         <v>13</v>
       </c>
@@ -447,7 +1426,7 @@
         <v>26.1071544993381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="n">
         <v>14</v>
       </c>
@@ -455,7 +1434,7 @@
         <v>25.7909680228454</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="n">
         <v>15</v>
       </c>
@@ -463,7 +1442,7 @@
         <v>18.1991642407365</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="n">
         <v>16</v>
       </c>
@@ -479,5 +1458,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>